--- a/2022_HelloWorld_in_English/1101.xlsx
+++ b/2022_HelloWorld_in_English/1101.xlsx
@@ -371,13 +371,13 @@
     <t>translation</t>
   </si>
   <si>
-    <t>Participant</t>
+    <t>participant</t>
   </si>
   <si>
-    <t>Respond_Twice</t>
+    <t>response</t>
   </si>
   <si>
-    <t>Rate</t>
+    <t>rate</t>
   </si>
   <si>
     <t>intervened</t>
@@ -542,10 +542,10 @@
     <t>rate of extra homework submitted in time</t>
   </si>
   <si>
-    <t>Before the program, how many days do you usually spend at least 5 minutes a day utilizing English videos or articles for entertainment or knowledge?</t>
+    <t>Before the program, how many days in a week do you usually spend at least 5 minutes on utilizing English for entertainment or knowledge?</t>
   </si>
   <si>
-    <t>In the future, how many days in a week do you expect yourself to spend at least 5 minutes a day utilizing English videos or articles for entertainment or knowledge?</t>
+    <t>In the future, how many days in a week do you wish that you will spend at least 5 minutes on utilizing English for entertainment or knowledge?</t>
   </si>
   <si>
     <t>I known I don't have to answer this question. This question is for the validity of the survey.</t>
